--- a/docs/Thuc nghiem.xlsx
+++ b/docs/Thuc nghiem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c2198e0f94650a/Works/Huong dan/TH CB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c2198e0f94650a/Works/Huong dan/TH CB/Arduino/thcb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="8_{007975CF-05B4-48BE-8DF0-F8173CE1A7D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5182BF9B-202E-4CB7-BE7D-3D6E63130CFB}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="8_{007975CF-05B4-48BE-8DF0-F8173CE1A7D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F6E3F569-E009-4767-B6A4-526E4B949A19}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{184CB8EF-3690-41CB-B86B-B5F9C6D4B47C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{184CB8EF-3690-41CB-B86B-B5F9C6D4B47C}"/>
   </bookViews>
   <sheets>
     <sheet name="Panasonic" sheetId="4" r:id="rId1"/>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0944DE4E-8822-48A3-996E-B834F71FF4CD}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3079,7 +3079,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4074,8 +4074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAE422A-BC89-4F6E-A821-13DF2BC087B2}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4471,6 +4471,130 @@
         <f t="shared" si="0"/>
         <v>117.14213786106419</v>
       </c>
+      <c r="D6" s="5">
+        <f>4600*D4/(D4+$B$1)</f>
+        <v>298.10441478111915</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:AH6" si="3">4600*E4/(E4+$B$1)</f>
+        <v>350.76841326564431</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>411.84548327607502</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>482.35028999318882</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="3"/>
+        <v>563.30159743446291</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>655.67536466476247</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="3"/>
+        <v>760.34391608117824</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="3"/>
+        <v>878.00185813758048</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="3"/>
+        <v>1009.0817207185571</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="3"/>
+        <v>1153.6652491160351</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="3"/>
+        <v>1311.3994800816029</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="3"/>
+        <v>1481.4294957302247</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="3"/>
+        <v>1662.3610939116902</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="3"/>
+        <v>1852.2655458977438</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="3"/>
+        <v>2048.7344967158597</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="3"/>
+        <v>2248.9860557195789</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="3"/>
+        <v>2450.0144164253225</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="3"/>
+        <v>2648.7670041972947</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="3"/>
+        <v>2842.327504208366</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="3"/>
+        <v>3028.081882035699</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="3"/>
+        <v>3203.8480637355715</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="3"/>
+        <v>3367.9571894444352</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="3"/>
+        <v>3519.2831703734328</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" si="3"/>
+        <v>3657.2253626676379</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="3"/>
+        <v>3781.6548362420162</v>
+      </c>
+      <c r="AC6" s="5">
+        <f t="shared" si="3"/>
+        <v>3892.8372909849409</v>
+      </c>
+      <c r="AD6" s="5">
+        <f t="shared" si="3"/>
+        <v>3991.3454388161194</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="3"/>
+        <v>4077.9714970821046</v>
+      </c>
+      <c r="AF6" s="5">
+        <f t="shared" si="3"/>
+        <v>4153.6473499556187</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" si="3"/>
+        <v>4219.3767870755992</v>
+      </c>
+      <c r="AH6" s="5">
+        <f t="shared" si="3"/>
+        <v>4276.1815686877171</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">

--- a/docs/Thuc nghiem.xlsx
+++ b/docs/Thuc nghiem.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c2198e0f94650a/Works/Huong dan/TH CB/Arduino/thcb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="8_{007975CF-05B4-48BE-8DF0-F8173CE1A7D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F6E3F569-E009-4767-B6A4-526E4B949A19}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="8_{007975CF-05B4-48BE-8DF0-F8173CE1A7D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9ED3B981-2C50-4C63-94DA-3E39995C3290}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{184CB8EF-3690-41CB-B86B-B5F9C6D4B47C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{184CB8EF-3690-41CB-B86B-B5F9C6D4B47C}"/>
   </bookViews>
   <sheets>
     <sheet name="Panasonic" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -681,8 +680,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.34068394070189062"/>
-                  <c:y val="-0.64910020940232416"/>
+                  <c:x val="3.696566536917148E-3"/>
+                  <c:y val="-0.58299533566826234"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1094,6 +1093,244 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>71.97876873829297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.744435935907362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.14273490421036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121.67714650907968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.94744042712873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172.66809001646234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205.69020896179279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245.02768321994108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>291.88830060104618</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>347.71083376440686</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>414.20921519697839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>493.42516048937449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>587.79085561431316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700.20363290989121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>834.11492856213636</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>993.63625286953243</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1183.6654269197109</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1410.0369615529573</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1679.7011957335455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.9376944568401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2383.6094581987654</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2839.4657489607125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3382.5028306498243</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4029.3936996921952</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5717.9818397393192</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6811.5242332476355</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8114.2024722196393</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9666.0129958582875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11514.601411042071</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13716.725366703187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8EF9-4CE6-BF46-FA22DA5B5725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1109,8 +1346,6 @@
         <c:axId val="560545087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90"/>
-          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1188,8 +1423,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
-          <c:min val="150"/>
+          <c:max val="20000"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2474,15 +2709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
+      <xdr:colOff>185737</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>339587</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323021</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2809,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0944DE4E-8822-48A3-996E-B834F71FF4CD}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3079,7 +3314,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3575,519 +3810,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF5ADB-8712-46F7-886A-A698612984DC}">
-  <dimension ref="A2:C38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>150</v>
-      </c>
-      <c r="B2" s="4">
-        <f t="shared" ref="B2:B7" si="0">A2+273</f>
-        <v>423</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C7" si="1">1000/B2</f>
-        <v>2.3640661938534278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>145</v>
-      </c>
-      <c r="B3" s="4">
-        <f t="shared" si="0"/>
-        <v>418</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="1"/>
-        <v>2.3923444976076556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>140</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" si="0"/>
-        <v>413</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>2.4213075060532687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>135</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>408</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>2.4509803921568629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>130</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>403</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>2.4813895781637716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>125</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="0"/>
-        <v>398</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>2.512562814070352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>120</v>
-      </c>
-      <c r="B8" s="4">
-        <f>A8+273</f>
-        <v>393</v>
-      </c>
-      <c r="C8">
-        <f>1000/B8</f>
-        <v>2.5445292620865141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>115</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" ref="B9:B38" si="2">A9+273</f>
-        <v>388</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C38" si="3">1000/B9</f>
-        <v>2.5773195876288661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>110</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="2"/>
-        <v>383</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="3"/>
-        <v>2.6109660574412534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>105</v>
-      </c>
-      <c r="B11" s="4">
-        <f t="shared" si="2"/>
-        <v>378</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>2.6455026455026456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" si="2"/>
-        <v>373</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>2.6809651474530831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>95</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="2"/>
-        <v>368</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>2.7173913043478262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>2.7548209366391183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>85</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="2"/>
-        <v>358</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>2.7932960893854748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>80</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="2"/>
-        <v>353</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>2.8328611898016995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>75</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="2"/>
-        <v>348</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>2.8735632183908044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>70</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="2"/>
-        <v>343</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>2.9154518950437316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>65</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="2"/>
-        <v>338</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>2.9585798816568047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>60</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" si="2"/>
-        <v>333</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>3.0030030030030028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>55</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" si="2"/>
-        <v>328</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>3.0487804878048781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>50</v>
-      </c>
-      <c r="B22" s="4">
-        <f t="shared" si="2"/>
-        <v>323</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>3.0959752321981426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>45</v>
-      </c>
-      <c r="B23" s="4">
-        <f t="shared" si="2"/>
-        <v>318</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>3.1446540880503147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>40</v>
-      </c>
-      <c r="B24" s="4">
-        <f t="shared" si="2"/>
-        <v>313</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>3.1948881789137382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>35</v>
-      </c>
-      <c r="B25" s="4">
-        <f t="shared" si="2"/>
-        <v>308</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>3.2467532467532467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" si="2"/>
-        <v>303</v>
-      </c>
-      <c r="C26">
-        <f>1000/B26</f>
-        <v>3.3003300330033003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" si="2"/>
-        <v>298</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>3.3557046979865772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4">
-        <f t="shared" si="2"/>
-        <v>293</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>3.4129692832764507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>15</v>
-      </c>
-      <c r="B29" s="4">
-        <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="3"/>
-        <v>3.4722222222222223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4">
-        <f t="shared" si="2"/>
-        <v>283</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="3"/>
-        <v>3.5335689045936394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" s="4">
-        <f t="shared" si="2"/>
-        <v>278</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>3.5971223021582732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" s="4">
-        <f t="shared" si="2"/>
-        <v>273</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>3.6630036630036629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>-5</v>
-      </c>
-      <c r="B33" s="4">
-        <f t="shared" si="2"/>
-        <v>268</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="3"/>
-        <v>3.7313432835820897</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>-10</v>
-      </c>
-      <c r="B34" s="4">
-        <f t="shared" si="2"/>
-        <v>263</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>3.8022813688212929</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>-15</v>
-      </c>
-      <c r="B35" s="4">
-        <f t="shared" si="2"/>
-        <v>258</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>3.8759689922480618</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>-20</v>
-      </c>
-      <c r="B36" s="4">
-        <f t="shared" si="2"/>
-        <v>253</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>3.9525691699604741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>-25</v>
-      </c>
-      <c r="B37" s="4">
-        <f t="shared" si="2"/>
-        <v>248</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>4.032258064516129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>-30</v>
-      </c>
-      <c r="B38" s="4">
-        <f t="shared" si="2"/>
-        <v>243</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>4.1152263374485596</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAE422A-BC89-4F6E-A821-13DF2BC087B2}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:AH6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="18" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="32" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.25">
@@ -4100,8 +3838,12 @@
         <v>120</v>
       </c>
       <c r="B3" s="5">
-        <f>4621.1*EXP(-0.035*A3)</f>
-        <v>69.296060045109513</v>
+        <f>4800*EXP(-0.035*A3)</f>
+        <v>71.97876873829297</v>
+      </c>
+      <c r="C3" s="4">
+        <f>4419.2*EXP(-0.033*A3)</f>
+        <v>84.243714677490146</v>
       </c>
       <c r="D3">
         <v>120</v>
@@ -4202,131 +3944,135 @@
         <v>115</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ref="B4:B33" si="0">4621.1*EXP(-0.035*A4)</f>
+        <f t="shared" ref="B4:B33" si="0">4800*EXP(-0.035*A4)</f>
+        <v>85.744435935907362</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:C33" si="1">4419.2*EXP(-0.033*A4)</f>
+        <v>99.356457385317611</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:AH4" si="2">4621.1*EXP(-0.035*D3)</f>
+        <v>69.296060045109513</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="2"/>
         <v>82.548669354879493</v>
       </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:AH4" si="1">4621.1*EXP(-0.035*D3)</f>
-        <v>69.296060045109513</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>82.548669354879493</v>
-      </c>
       <c r="F4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.335790055384692</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117.14213786106419</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>139.54512853287596</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166.2326064114738</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>198.02396346527934</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.89529727659789</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>281.00938039739469</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>334.75136123097928</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>398.77129257224101</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>475.03479357030182</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>565.88340059985478</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>674.10646000831218</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>803.02677007885188</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>956.60260169487435</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1139.5492300705575</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1357.4837089650773</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1617.09733241756</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1926.3610791363551</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2294.7703473504826</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2733.6364942754894</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3256.4341313991467</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3879.2148386765843</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4621.1000000000004</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5504.8678915873679</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6557.6530488043018</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7811.7793842446199</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9305.7526364918194</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11085.442620951359</v>
       </c>
       <c r="AH4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13205.491581681688</v>
       </c>
     </row>
@@ -4336,130 +4082,134 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>98.335790055384692</v>
+        <v>102.14273490421036</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>117.18032213978512</v>
       </c>
       <c r="D5" s="5">
         <f>5000*D4/(D4+$B$1)</f>
         <v>324.02653780556426</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:AH5" si="2">5000*E4/(E4+$B$1)</f>
+        <f t="shared" ref="E5:AH5" si="3">5000*E4/(E4+$B$1)</f>
         <v>381.27001441917861</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>447.65813399573375</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>524.29379347085751</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>612.28434503745973</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>712.69061376604611</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>826.46077834910682</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>954.34984580171795</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1096.8279573027794</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1253.9839664304732</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1425.4342174800031</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1610.2494518806789</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1806.914232512707</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2013.3321151062435</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2226.8853225172388</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2444.5500605647594</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2663.0591482883942</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2879.0945697796683</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3089.4864176177889</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3291.3933500388034</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3482.4435475386649</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3660.823032004821</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3825.3077938841661</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3975.2449594213454</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4110.4943872195827</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4231.3448815053698</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4338.4189552349126</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4432.5777142196785</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4514.8340760387146</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4586.2791163865204</v>
       </c>
       <c r="AH5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4648.0234442257797</v>
       </c>
     </row>
@@ -4469,130 +4219,134 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>117.14213786106419</v>
+        <v>121.67714650907968</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>138.20166558004658</v>
       </c>
       <c r="D6" s="5">
         <f>4600*D4/(D4+$B$1)</f>
         <v>298.10441478111915</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" ref="E6:AH6" si="3">4600*E4/(E4+$B$1)</f>
+        <f t="shared" ref="E6:AH6" si="4">4600*E4/(E4+$B$1)</f>
         <v>350.76841326564431</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>411.84548327607502</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>482.35028999318882</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>563.30159743446291</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>655.67536466476247</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>760.34391608117824</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>878.00185813758048</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1009.0817207185571</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1153.6652491160351</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1311.3994800816029</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1481.4294957302247</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1662.3610939116902</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1852.2655458977438</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2048.7344967158597</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2248.9860557195789</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2450.0144164253225</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2648.7670041972947</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2842.327504208366</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3028.081882035699</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3203.8480637355715</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3367.9571894444352</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3519.2831703734328</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3657.2253626676379</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3781.6548362420162</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3892.8372909849409</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3991.3454388161194</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4077.9714970821046</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4153.6473499556187</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4219.3767870755992</v>
       </c>
       <c r="AH6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4276.1815686877171</v>
       </c>
     </row>
@@ -4602,7 +4356,11 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>139.54512853287596</v>
+        <v>144.94744042712873</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>162.99409337955979</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -4611,7 +4369,104 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>166.2326064114738</v>
+        <v>172.66809001646234</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>192.23411212245463</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>105</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>85</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>75</v>
+      </c>
+      <c r="N8">
+        <v>70</v>
+      </c>
+      <c r="O8">
+        <v>65</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>55</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <v>45</v>
+      </c>
+      <c r="T8">
+        <v>40</v>
+      </c>
+      <c r="U8">
+        <v>35</v>
+      </c>
+      <c r="V8">
+        <v>30</v>
+      </c>
+      <c r="W8">
+        <v>25</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>15</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>-5</v>
+      </c>
+      <c r="AD8">
+        <v>-10</v>
+      </c>
+      <c r="AE8">
+        <v>-15</v>
+      </c>
+      <c r="AF8">
+        <v>-20</v>
+      </c>
+      <c r="AG8">
+        <v>-25</v>
+      </c>
+      <c r="AH8">
+        <v>-30</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -4620,7 +4475,135 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
+        <v>205.69020896179279</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>226.71958901881692</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:AH9" si="5">4621.1*EXP(-0.035*D8)</f>
+        <v>69.296060045109513</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="5"/>
+        <v>82.548669354879493</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="5"/>
+        <v>98.335790055384692</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="5"/>
+        <v>117.14213786106419</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="5"/>
+        <v>139.54512853287596</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>166.2326064114738</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="5"/>
         <v>198.02396346527934</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="5"/>
+        <v>235.89529727659789</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="5"/>
+        <v>281.00938039739469</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="5"/>
+        <v>334.75136123097928</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="5"/>
+        <v>398.77129257224101</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="5"/>
+        <v>475.03479357030182</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="5"/>
+        <v>565.88340059985478</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="5"/>
+        <v>674.10646000831218</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="5"/>
+        <v>803.02677007885188</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="5"/>
+        <v>956.60260169487435</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="5"/>
+        <v>1139.5492300705575</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="5"/>
+        <v>1357.4837089650773</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="5"/>
+        <v>1617.09733241756</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="5"/>
+        <v>1926.3610791363551</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="5"/>
+        <v>2294.7703473504826</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="5"/>
+        <v>2733.6364942754894</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="5"/>
+        <v>3256.4341313991467</v>
+      </c>
+      <c r="AA9" s="5">
+        <f t="shared" si="5"/>
+        <v>3879.2148386765843</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="5"/>
+        <v>4621.1000000000004</v>
+      </c>
+      <c r="AC9" s="5">
+        <f t="shared" si="5"/>
+        <v>5504.8678915873679</v>
+      </c>
+      <c r="AD9" s="5">
+        <f t="shared" si="5"/>
+        <v>6557.6530488043018</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="5"/>
+        <v>7811.7793842446199</v>
+      </c>
+      <c r="AF9" s="5">
+        <f t="shared" si="5"/>
+        <v>9305.7526364918194</v>
+      </c>
+      <c r="AG9" s="5">
+        <f t="shared" si="5"/>
+        <v>11085.442620951359</v>
+      </c>
+      <c r="AH9" s="5">
+        <f t="shared" si="5"/>
+        <v>13205.491581681688</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -4629,7 +4612,135 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>235.89529727659789</v>
+        <v>245.02768321994108</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>267.39152316586723</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:AH10" si="6">4419.2*EXP(-0.033*D8)</f>
+        <v>84.243714677490146</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="6"/>
+        <v>99.356457385317611</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="6"/>
+        <v>117.18032213978512</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="6"/>
+        <v>138.20166558004658</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="6"/>
+        <v>162.99409337955979</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="6"/>
+        <v>192.23411212245463</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="6"/>
+        <v>226.71958901881692</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="6"/>
+        <v>267.39152316586723</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="6"/>
+        <v>315.35972242358122</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="6"/>
+        <v>371.93308654510594</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="6"/>
+        <v>438.6553228923861</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="6"/>
+        <v>517.34706930540324</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="6"/>
+        <v>610.15557352429755</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="6"/>
+        <v>719.61328475795824</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="6"/>
+        <v>848.70695617683634</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="6"/>
+        <v>1000.9591439174507</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="6"/>
+        <v>1180.5243264474857</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="6"/>
+        <v>1392.3022670835642</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="6"/>
+        <v>1642.0717129646243</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="6"/>
+        <v>1936.6480787011033</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="6"/>
+        <v>2284.0694173857169</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="6"/>
+        <v>2693.8157535238497</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="6"/>
+        <v>3177.0677627823679</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="6"/>
+        <v>3747.0118571053176</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="6"/>
+        <v>4419.2</v>
+      </c>
+      <c r="AC10" s="4">
+        <f t="shared" si="6"/>
+        <v>5211.9740702093777</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="6"/>
+        <v>6146.9663533071371</v>
+      </c>
+      <c r="AE10" s="4">
+        <f t="shared" si="6"/>
+        <v>7249.689818040888</v>
+      </c>
+      <c r="AF10" s="4">
+        <f t="shared" si="6"/>
+        <v>8550.2342841894588</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="6"/>
+        <v>10084.087478143259</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="6"/>
+        <v>11893.103380205859</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -4638,7 +4749,11 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>281.00938039739469</v>
+        <v>291.88830060104618</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>315.35972242358122</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -4647,7 +4762,11 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>334.75136123097928</v>
+        <v>347.71083376440686</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>371.93308654510594</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -4656,7 +4775,11 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>398.77129257224101</v>
+        <v>414.20921519697839</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>438.6553228923861</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -4665,7 +4788,11 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>475.03479357030182</v>
+        <v>493.42516048937449</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>517.34706930540324</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -4674,7 +4801,11 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>565.88340059985478</v>
+        <v>587.79085561431316</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>610.15557352429755</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -4683,160 +4814,232 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>674.10646000831218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>700.20363290989121</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>719.61328475795824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>803.02677007885188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>834.11492856213636</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>848.70695617683634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>45</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>956.60260169487435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>993.63625286953243</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>1000.9591439174507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>1139.5492300705575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1183.6654269197109</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>1180.5243264474857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>35</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
-        <v>1357.4837089650773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1410.0369615529573</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>1392.3022670835642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>30</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
-        <v>1617.09733241756</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1679.7011957335455</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>1642.0717129646243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
-        <v>1926.3610791363551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2000.9376944568401</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>1936.6480787011033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
-        <v>2294.7703473504826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2383.6094581987654</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>2284.0694173857169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
-        <v>2733.6364942754894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2839.4657489607125</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="1"/>
+        <v>2693.8157535238497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="0"/>
-        <v>3256.4341313991467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3382.5028306498243</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="1"/>
+        <v>3177.0677627823679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="0"/>
-        <v>3879.2148386765843</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4029.3936996921952</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>3747.0118571053176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="0"/>
-        <v>4621.1000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4800</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="1"/>
+        <v>4419.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-5</v>
       </c>
       <c r="B28" s="5">
         <f t="shared" si="0"/>
-        <v>5504.8678915873679</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5717.9818397393192</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>5211.9740702093777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-10</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="0"/>
-        <v>6557.6530488043018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6811.5242332476355</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="1"/>
+        <v>6146.9663533071371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-15</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="0"/>
-        <v>7811.7793842446199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8114.2024722196393</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="1"/>
+        <v>7249.689818040888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-20</v>
       </c>
       <c r="B31" s="5">
         <f t="shared" si="0"/>
-        <v>9305.7526364918194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9666.0129958582875</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="1"/>
+        <v>8550.2342841894588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-25</v>
       </c>
       <c r="B32" s="5">
         <f t="shared" si="0"/>
-        <v>11085.442620951359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11514.601411042071</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>10084.087478143259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-30</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="0"/>
-        <v>13205.491581681688</v>
+        <v>13716.725366703187</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>11893.103380205859</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Thuc nghiem.xlsx
+++ b/docs/Thuc nghiem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c2198e0f94650a/Works/Huong dan/TH CB/Arduino/thcb/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="8_{007975CF-05B4-48BE-8DF0-F8173CE1A7D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9ED3B981-2C50-4C63-94DA-3E39995C3290}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{007975CF-05B4-48BE-8DF0-F8173CE1A7D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{408F47D5-88DE-4FE6-B41B-B890E1F2A872}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{184CB8EF-3690-41CB-B86B-B5F9C6D4B47C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{184CB8EF-3690-41CB-B86B-B5F9C6D4B47C}"/>
   </bookViews>
   <sheets>
     <sheet name="Panasonic" sheetId="4" r:id="rId1"/>
@@ -1229,97 +1229,97 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>71.97876873829297</c:v>
+                  <c:v>69.296060045109513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.744435935907362</c:v>
+                  <c:v>82.548669354879493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.14273490421036</c:v>
+                  <c:v>98.335790055384692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121.67714650907968</c:v>
+                  <c:v>117.14213786106419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144.94744042712873</c:v>
+                  <c:v>139.54512853287596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172.66809001646234</c:v>
+                  <c:v>166.2326064114738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.69020896179279</c:v>
+                  <c:v>198.02396346527934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>245.02768321994108</c:v>
+                  <c:v>235.89529727659789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>291.88830060104618</c:v>
+                  <c:v>281.00938039739469</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>347.71083376440686</c:v>
+                  <c:v>334.75136123097928</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>414.20921519697839</c:v>
+                  <c:v>398.77129257224101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>493.42516048937449</c:v>
+                  <c:v>475.03479357030182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>587.79085561431316</c:v>
+                  <c:v>565.88340059985478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>700.20363290989121</c:v>
+                  <c:v>674.10646000831218</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>834.11492856213636</c:v>
+                  <c:v>803.02677007885188</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>993.63625286953243</c:v>
+                  <c:v>956.60260169487435</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1183.6654269197109</c:v>
+                  <c:v>1139.5492300705575</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1410.0369615529573</c:v>
+                  <c:v>1357.4837089650773</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1679.7011957335455</c:v>
+                  <c:v>1617.09733241756</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.9376944568401</c:v>
+                  <c:v>1926.3610791363551</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2383.6094581987654</c:v>
+                  <c:v>2294.7703473504826</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2839.4657489607125</c:v>
+                  <c:v>2733.6364942754894</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3382.5028306498243</c:v>
+                  <c:v>3256.4341313991467</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4029.3936996921952</c:v>
+                  <c:v>3879.2148386765843</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4800</c:v>
+                  <c:v>4621.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5717.9818397393192</c:v>
+                  <c:v>5504.8678915873679</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6811.5242332476355</c:v>
+                  <c:v>6557.6530488043018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8114.2024722196393</c:v>
+                  <c:v>7811.7793842446199</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9666.0129958582875</c:v>
+                  <c:v>9305.7526364918194</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11514.601411042071</c:v>
+                  <c:v>11085.442620951359</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13716.725366703187</c:v>
+                  <c:v>13205.491581681688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0944DE4E-8822-48A3-996E-B834F71FF4CD}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3313,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C624FDE-1C17-4011-8CF1-583530251B3B}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3813,8 +3813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAE422A-BC89-4F6E-A821-13DF2BC087B2}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3838,13 +3838,10 @@
         <v>120</v>
       </c>
       <c r="B3" s="5">
-        <f>4800*EXP(-0.035*A3)</f>
-        <v>71.97876873829297</v>
-      </c>
-      <c r="C3" s="4">
-        <f>4419.2*EXP(-0.033*A3)</f>
-        <v>84.243714677490146</v>
-      </c>
+        <f>4621.1*EXP(-0.035*A3)</f>
+        <v>69.296060045109513</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3">
         <v>120</v>
       </c>
@@ -3944,135 +3941,132 @@
         <v>115</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ref="B4:B33" si="0">4800*EXP(-0.035*A4)</f>
-        <v>85.744435935907362</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" ref="C4:C33" si="1">4419.2*EXP(-0.033*A4)</f>
-        <v>99.356457385317611</v>
-      </c>
+        <f t="shared" ref="B4:B33" si="0">4621.1*EXP(-0.035*A4)</f>
+        <v>82.548669354879493</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:AH4" si="2">4621.1*EXP(-0.035*D3)</f>
+        <f t="shared" ref="D4:AH4" si="1">4621.1*EXP(-0.035*D3)</f>
         <v>69.296060045109513</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82.548669354879493</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98.335790055384692</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>117.14213786106419</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>139.54512853287596</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>166.2326064114738</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>198.02396346527934</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>235.89529727659789</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>281.00938039739469</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>334.75136123097928</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>398.77129257224101</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>475.03479357030182</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>565.88340059985478</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>674.10646000831218</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>803.02677007885188</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>956.60260169487435</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1139.5492300705575</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1357.4837089650773</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1617.09733241756</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1926.3610791363551</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2294.7703473504826</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2733.6364942754894</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3256.4341313991467</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3879.2148386765843</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4621.1000000000004</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5504.8678915873679</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6557.6530488043018</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7811.7793842446199</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9305.7526364918194</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11085.442620951359</v>
       </c>
       <c r="AH4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13205.491581681688</v>
       </c>
     </row>
@@ -4082,136 +4076,40 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>102.14273490421036</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>117.18032213978512</v>
-      </c>
-      <c r="D5" s="5">
-        <f>5000*D4/(D4+$B$1)</f>
-        <v>324.02653780556426</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:AH5" si="3">5000*E4/(E4+$B$1)</f>
-        <v>381.27001441917861</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="3"/>
-        <v>447.65813399573375</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="3"/>
-        <v>524.29379347085751</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="3"/>
-        <v>612.28434503745973</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="3"/>
-        <v>712.69061376604611</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="3"/>
-        <v>826.46077834910682</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="3"/>
-        <v>954.34984580171795</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="3"/>
-        <v>1096.8279573027794</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="3"/>
-        <v>1253.9839664304732</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="3"/>
-        <v>1425.4342174800031</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="3"/>
-        <v>1610.2494518806789</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="3"/>
-        <v>1806.914232512707</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="3"/>
-        <v>2013.3321151062435</v>
-      </c>
-      <c r="R5" s="5">
-        <f t="shared" si="3"/>
-        <v>2226.8853225172388</v>
-      </c>
-      <c r="S5" s="5">
-        <f t="shared" si="3"/>
-        <v>2444.5500605647594</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="3"/>
-        <v>2663.0591482883942</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="3"/>
-        <v>2879.0945697796683</v>
-      </c>
-      <c r="V5" s="5">
-        <f t="shared" si="3"/>
-        <v>3089.4864176177889</v>
-      </c>
-      <c r="W5" s="5">
-        <f t="shared" si="3"/>
-        <v>3291.3933500388034</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="3"/>
-        <v>3482.4435475386649</v>
-      </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="3"/>
-        <v>3660.823032004821</v>
-      </c>
-      <c r="Z5" s="5">
-        <f t="shared" si="3"/>
-        <v>3825.3077938841661</v>
-      </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="3"/>
-        <v>3975.2449594213454</v>
-      </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="3"/>
-        <v>4110.4943872195827</v>
-      </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="3"/>
-        <v>4231.3448815053698</v>
-      </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="3"/>
-        <v>4338.4189552349126</v>
-      </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="3"/>
-        <v>4432.5777142196785</v>
-      </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="3"/>
-        <v>4514.8340760387146</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="3"/>
-        <v>4586.2791163865204</v>
-      </c>
-      <c r="AH5" s="5">
-        <f t="shared" si="3"/>
-        <v>4648.0234442257797</v>
-      </c>
+        <v>98.335790055384692</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -4219,136 +4117,40 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>121.67714650907968</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>138.20166558004658</v>
-      </c>
-      <c r="D6" s="5">
-        <f>4600*D4/(D4+$B$1)</f>
-        <v>298.10441478111915</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" ref="E6:AH6" si="4">4600*E4/(E4+$B$1)</f>
-        <v>350.76841326564431</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>411.84548327607502</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="4"/>
-        <v>482.35028999318882</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="4"/>
-        <v>563.30159743446291</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="4"/>
-        <v>655.67536466476247</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="4"/>
-        <v>760.34391608117824</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="4"/>
-        <v>878.00185813758048</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="4"/>
-        <v>1009.0817207185571</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="4"/>
-        <v>1153.6652491160351</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="4"/>
-        <v>1311.3994800816029</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="4"/>
-        <v>1481.4294957302247</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="4"/>
-        <v>1662.3610939116902</v>
-      </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="4"/>
-        <v>1852.2655458977438</v>
-      </c>
-      <c r="R6" s="5">
-        <f t="shared" si="4"/>
-        <v>2048.7344967158597</v>
-      </c>
-      <c r="S6" s="5">
-        <f t="shared" si="4"/>
-        <v>2248.9860557195789</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" si="4"/>
-        <v>2450.0144164253225</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" si="4"/>
-        <v>2648.7670041972947</v>
-      </c>
-      <c r="V6" s="5">
-        <f t="shared" si="4"/>
-        <v>2842.327504208366</v>
-      </c>
-      <c r="W6" s="5">
-        <f t="shared" si="4"/>
-        <v>3028.081882035699</v>
-      </c>
-      <c r="X6" s="5">
-        <f t="shared" si="4"/>
-        <v>3203.8480637355715</v>
-      </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="4"/>
-        <v>3367.9571894444352</v>
-      </c>
-      <c r="Z6" s="5">
-        <f t="shared" si="4"/>
-        <v>3519.2831703734328</v>
-      </c>
-      <c r="AA6" s="5">
-        <f t="shared" si="4"/>
-        <v>3657.2253626676379</v>
-      </c>
-      <c r="AB6" s="5">
-        <f t="shared" si="4"/>
-        <v>3781.6548362420162</v>
-      </c>
-      <c r="AC6" s="5">
-        <f t="shared" si="4"/>
-        <v>3892.8372909849409</v>
-      </c>
-      <c r="AD6" s="5">
-        <f t="shared" si="4"/>
-        <v>3991.3454388161194</v>
-      </c>
-      <c r="AE6" s="5">
-        <f t="shared" si="4"/>
-        <v>4077.9714970821046</v>
-      </c>
-      <c r="AF6" s="5">
-        <f t="shared" si="4"/>
-        <v>4153.6473499556187</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="4"/>
-        <v>4219.3767870755992</v>
-      </c>
-      <c r="AH6" s="5">
-        <f t="shared" si="4"/>
-        <v>4276.1815686877171</v>
-      </c>
+        <v>117.14213786106419</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -4356,12 +4158,9 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>144.94744042712873</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>162.99409337955979</v>
-      </c>
+        <v>139.54512853287596</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -4369,105 +4168,9 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>172.66809001646234</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>192.23411212245463</v>
-      </c>
-      <c r="D8">
-        <v>120</v>
-      </c>
-      <c r="E8">
-        <v>115</v>
-      </c>
-      <c r="F8">
-        <v>110</v>
-      </c>
-      <c r="G8">
-        <v>105</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>95</v>
-      </c>
-      <c r="J8">
-        <v>90</v>
-      </c>
-      <c r="K8">
-        <v>85</v>
-      </c>
-      <c r="L8">
-        <v>80</v>
-      </c>
-      <c r="M8">
-        <v>75</v>
-      </c>
-      <c r="N8">
-        <v>70</v>
-      </c>
-      <c r="O8">
-        <v>65</v>
-      </c>
-      <c r="P8">
-        <v>60</v>
-      </c>
-      <c r="Q8">
-        <v>55</v>
-      </c>
-      <c r="R8">
-        <v>50</v>
-      </c>
-      <c r="S8">
-        <v>45</v>
-      </c>
-      <c r="T8">
-        <v>40</v>
-      </c>
-      <c r="U8">
-        <v>35</v>
-      </c>
-      <c r="V8">
-        <v>30</v>
-      </c>
-      <c r="W8">
-        <v>25</v>
-      </c>
-      <c r="X8">
-        <v>20</v>
-      </c>
-      <c r="Y8">
-        <v>15</v>
-      </c>
-      <c r="Z8">
-        <v>10</v>
-      </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>-5</v>
-      </c>
-      <c r="AD8">
-        <v>-10</v>
-      </c>
-      <c r="AE8">
-        <v>-15</v>
-      </c>
-      <c r="AF8">
-        <v>-20</v>
-      </c>
-      <c r="AG8">
-        <v>-25</v>
-      </c>
-      <c r="AH8">
-        <v>-30</v>
-      </c>
+        <v>166.2326064114738</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -4475,136 +4178,40 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>205.69020896179279</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>226.71958901881692</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" ref="D9:AH9" si="5">4621.1*EXP(-0.035*D8)</f>
-        <v>69.296060045109513</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="5"/>
-        <v>82.548669354879493</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="5"/>
-        <v>98.335790055384692</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="5"/>
-        <v>117.14213786106419</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="5"/>
-        <v>139.54512853287596</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="5"/>
-        <v>166.2326064114738</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="5"/>
         <v>198.02396346527934</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="5"/>
-        <v>235.89529727659789</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="5"/>
-        <v>281.00938039739469</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="5"/>
-        <v>334.75136123097928</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="5"/>
-        <v>398.77129257224101</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="5"/>
-        <v>475.03479357030182</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="5"/>
-        <v>565.88340059985478</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="5"/>
-        <v>674.10646000831218</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="5"/>
-        <v>803.02677007885188</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" si="5"/>
-        <v>956.60260169487435</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="5"/>
-        <v>1139.5492300705575</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" si="5"/>
-        <v>1357.4837089650773</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" si="5"/>
-        <v>1617.09733241756</v>
-      </c>
-      <c r="W9" s="5">
-        <f t="shared" si="5"/>
-        <v>1926.3610791363551</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="5"/>
-        <v>2294.7703473504826</v>
-      </c>
-      <c r="Y9" s="5">
-        <f t="shared" si="5"/>
-        <v>2733.6364942754894</v>
-      </c>
-      <c r="Z9" s="5">
-        <f t="shared" si="5"/>
-        <v>3256.4341313991467</v>
-      </c>
-      <c r="AA9" s="5">
-        <f t="shared" si="5"/>
-        <v>3879.2148386765843</v>
-      </c>
-      <c r="AB9" s="5">
-        <f t="shared" si="5"/>
-        <v>4621.1000000000004</v>
-      </c>
-      <c r="AC9" s="5">
-        <f t="shared" si="5"/>
-        <v>5504.8678915873679</v>
-      </c>
-      <c r="AD9" s="5">
-        <f t="shared" si="5"/>
-        <v>6557.6530488043018</v>
-      </c>
-      <c r="AE9" s="5">
-        <f t="shared" si="5"/>
-        <v>7811.7793842446199</v>
-      </c>
-      <c r="AF9" s="5">
-        <f t="shared" si="5"/>
-        <v>9305.7526364918194</v>
-      </c>
-      <c r="AG9" s="5">
-        <f t="shared" si="5"/>
-        <v>11085.442620951359</v>
-      </c>
-      <c r="AH9" s="5">
-        <f t="shared" si="5"/>
-        <v>13205.491581681688</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -4612,136 +4219,40 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>245.02768321994108</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>267.39152316586723</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:AH10" si="6">4419.2*EXP(-0.033*D8)</f>
-        <v>84.243714677490146</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="6"/>
-        <v>99.356457385317611</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="6"/>
-        <v>117.18032213978512</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="6"/>
-        <v>138.20166558004658</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="6"/>
-        <v>162.99409337955979</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="6"/>
-        <v>192.23411212245463</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="6"/>
-        <v>226.71958901881692</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="6"/>
-        <v>267.39152316586723</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="6"/>
-        <v>315.35972242358122</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="6"/>
-        <v>371.93308654510594</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="6"/>
-        <v>438.6553228923861</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="6"/>
-        <v>517.34706930540324</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="6"/>
-        <v>610.15557352429755</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="6"/>
-        <v>719.61328475795824</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" si="6"/>
-        <v>848.70695617683634</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="6"/>
-        <v>1000.9591439174507</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="6"/>
-        <v>1180.5243264474857</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="6"/>
-        <v>1392.3022670835642</v>
-      </c>
-      <c r="V10" s="4">
-        <f t="shared" si="6"/>
-        <v>1642.0717129646243</v>
-      </c>
-      <c r="W10" s="4">
-        <f t="shared" si="6"/>
-        <v>1936.6480787011033</v>
-      </c>
-      <c r="X10" s="4">
-        <f t="shared" si="6"/>
-        <v>2284.0694173857169</v>
-      </c>
-      <c r="Y10" s="4">
-        <f t="shared" si="6"/>
-        <v>2693.8157535238497</v>
-      </c>
-      <c r="Z10" s="4">
-        <f t="shared" si="6"/>
-        <v>3177.0677627823679</v>
-      </c>
-      <c r="AA10" s="4">
-        <f t="shared" si="6"/>
-        <v>3747.0118571053176</v>
-      </c>
-      <c r="AB10" s="4">
-        <f t="shared" si="6"/>
-        <v>4419.2</v>
-      </c>
-      <c r="AC10" s="4">
-        <f t="shared" si="6"/>
-        <v>5211.9740702093777</v>
-      </c>
-      <c r="AD10" s="4">
-        <f t="shared" si="6"/>
-        <v>6146.9663533071371</v>
-      </c>
-      <c r="AE10" s="4">
-        <f t="shared" si="6"/>
-        <v>7249.689818040888</v>
-      </c>
-      <c r="AF10" s="4">
-        <f t="shared" si="6"/>
-        <v>8550.2342841894588</v>
-      </c>
-      <c r="AG10" s="4">
-        <f t="shared" si="6"/>
-        <v>10084.087478143259</v>
-      </c>
-      <c r="AH10" s="4">
-        <f t="shared" si="6"/>
-        <v>11893.103380205859</v>
-      </c>
+        <v>235.89529727659789</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -4749,12 +4260,9 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>291.88830060104618</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>315.35972242358122</v>
-      </c>
+        <v>281.00938039739469</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -4762,12 +4270,9 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>347.71083376440686</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="1"/>
-        <v>371.93308654510594</v>
-      </c>
+        <v>334.75136123097928</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -4775,12 +4280,9 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>414.20921519697839</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="1"/>
-        <v>438.6553228923861</v>
-      </c>
+        <v>398.77129257224101</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4788,12 +4290,9 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>493.42516048937449</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>517.34706930540324</v>
-      </c>
+        <v>475.03479357030182</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -4801,12 +4300,9 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>587.79085561431316</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>610.15557352429755</v>
-      </c>
+        <v>565.88340059985478</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -4814,12 +4310,9 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>700.20363290989121</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>719.61328475795824</v>
-      </c>
+        <v>674.10646000831218</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -4827,12 +4320,9 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>834.11492856213636</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>848.70695617683634</v>
-      </c>
+        <v>803.02677007885188</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -4840,12 +4330,9 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>993.63625286953243</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>1000.9591439174507</v>
-      </c>
+        <v>956.60260169487435</v>
+      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -4853,12 +4340,9 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>1183.6654269197109</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>1180.5243264474857</v>
-      </c>
+        <v>1139.5492300705575</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -4866,12 +4350,9 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
-        <v>1410.0369615529573</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="1"/>
-        <v>1392.3022670835642</v>
-      </c>
+        <v>1357.4837089650773</v>
+      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -4879,12 +4360,9 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
-        <v>1679.7011957335455</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="1"/>
-        <v>1642.0717129646243</v>
-      </c>
+        <v>1617.09733241756</v>
+      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -4892,12 +4370,9 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
-        <v>2000.9376944568401</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="1"/>
-        <v>1936.6480787011033</v>
-      </c>
+        <v>1926.3610791363551</v>
+      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -4905,12 +4380,9 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
-        <v>2383.6094581987654</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="1"/>
-        <v>2284.0694173857169</v>
-      </c>
+        <v>2294.7703473504826</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -4918,12 +4390,9 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
-        <v>2839.4657489607125</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="1"/>
-        <v>2693.8157535238497</v>
-      </c>
+        <v>2733.6364942754894</v>
+      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -4931,12 +4400,9 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" si="0"/>
-        <v>3382.5028306498243</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="1"/>
-        <v>3177.0677627823679</v>
-      </c>
+        <v>3256.4341313991467</v>
+      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -4944,12 +4410,9 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" si="0"/>
-        <v>4029.3936996921952</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>3747.0118571053176</v>
-      </c>
+        <v>3879.2148386765843</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -4957,12 +4420,9 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="1"/>
-        <v>4419.2</v>
-      </c>
+        <v>4621.1000000000004</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -4970,12 +4430,9 @@
       </c>
       <c r="B28" s="5">
         <f t="shared" si="0"/>
-        <v>5717.9818397393192</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="1"/>
-        <v>5211.9740702093777</v>
-      </c>
+        <v>5504.8678915873679</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -4983,12 +4440,9 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" si="0"/>
-        <v>6811.5242332476355</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="1"/>
-        <v>6146.9663533071371</v>
-      </c>
+        <v>6557.6530488043018</v>
+      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -4996,12 +4450,9 @@
       </c>
       <c r="B30" s="5">
         <f t="shared" si="0"/>
-        <v>8114.2024722196393</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="1"/>
-        <v>7249.689818040888</v>
-      </c>
+        <v>7811.7793842446199</v>
+      </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -5009,12 +4460,9 @@
       </c>
       <c r="B31" s="5">
         <f t="shared" si="0"/>
-        <v>9666.0129958582875</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="1"/>
-        <v>8550.2342841894588</v>
-      </c>
+        <v>9305.7526364918194</v>
+      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -5022,12 +4470,9 @@
       </c>
       <c r="B32" s="5">
         <f t="shared" si="0"/>
-        <v>11514.601411042071</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="1"/>
-        <v>10084.087478143259</v>
-      </c>
+        <v>11085.442620951359</v>
+      </c>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -5035,12 +4480,9 @@
       </c>
       <c r="B33" s="5">
         <f t="shared" si="0"/>
-        <v>13716.725366703187</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="1"/>
-        <v>11893.103380205859</v>
-      </c>
+        <v>13205.491581681688</v>
+      </c>
+      <c r="C33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
